--- a/plot/plotConfig.xlsx
+++ b/plot/plotConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3074" yWindow="0" windowWidth="14317" windowHeight="6729"/>
+    <workbookView xWindow="5123" yWindow="0" windowWidth="14317" windowHeight="6729"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,136 +24,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+  <si>
+    <t>act_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylabel</t>
+  </si>
+  <si>
+    <t>吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢种分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_col_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_col_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_hex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_defect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>data_col</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xlabel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylabel</t>
-  </si>
-  <si>
-    <t>吨位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚度分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢种分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot_dist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_col_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_col_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot_hex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot_defect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot_grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot_thick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot_width</t>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -567,59 +583,71 @@
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7">
         <v>0.5</v>
@@ -628,30 +656,42 @@
         <v>30</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>6.5</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3.6</v>
+      </c>
+      <c r="O2">
+        <v>2.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="7">
         <v>0.5</v>
@@ -660,30 +700,42 @@
         <v>30</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>0.6</v>
+      </c>
+      <c r="N3">
+        <v>3.6</v>
+      </c>
+      <c r="O3">
+        <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="7">
         <v>0.5</v>
@@ -692,30 +744,42 @@
         <v>30</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>0.01</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3.6</v>
+      </c>
+      <c r="O4">
+        <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0.5</v>
@@ -724,30 +788,54 @@
         <v>30</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>3.2</v>
+      </c>
+      <c r="N5">
+        <v>3.6</v>
+      </c>
+      <c r="O5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/plot/plotConfig.xlsx
+++ b/plot/plotConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5123" yWindow="0" windowWidth="14317" windowHeight="6729"/>
+    <workbookView xWindow="6148" yWindow="0" windowWidth="14317" windowHeight="6729"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>act_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缺陷分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,18 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厚度分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢种分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,18 +97,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规格分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>func</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plot_dist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dist_col_y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +146,66 @@
   </si>
   <si>
     <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coil_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_dist_absolute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_dist_relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷绝对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢种绝对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度绝对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度绝对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷相对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢种相对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度相对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度相对量分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -252,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,6 +329,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,16 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -588,66 +633,66 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7">
         <v>0.5</v>
@@ -656,42 +701,42 @@
         <v>30</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" s="7">
         <v>0.5</v>
@@ -700,42 +745,42 @@
         <v>30</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7">
         <v>0.5</v>
@@ -744,42 +789,42 @@
         <v>30</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0.5</v>
@@ -788,53 +833,232 @@
         <v>30</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="3">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="J6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>6.5</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3.6</v>
+      </c>
+      <c r="O6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>3.2</v>
+      </c>
+      <c r="M7">
+        <v>0.6</v>
+      </c>
+      <c r="N7">
+        <v>3.6</v>
+      </c>
+      <c r="O7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0.01</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3.6</v>
+      </c>
+      <c r="O8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>3.6</v>
+      </c>
+      <c r="O9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="L6">
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
     </row>

--- a/plot/plotConfig.xlsx
+++ b/plot/plotConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6148" yWindow="0" windowWidth="14317" windowHeight="6729"/>
+    <workbookView xWindow="7172" yWindow="0" windowWidth="14317" windowHeight="6729"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>act_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plot_dist_absolute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +202,18 @@
   </si>
   <si>
     <t>宽度相对量分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吨位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +625,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -677,10 +685,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>22</v>
@@ -721,10 +729,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>23</v>
@@ -765,10 +773,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>24</v>
@@ -809,10 +817,10 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>25</v>
@@ -836,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -853,10 +861,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>22</v>
@@ -880,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L6">
         <v>6.5</v>
@@ -897,10 +905,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>23</v>
@@ -924,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L7">
         <v>3.2</v>
@@ -941,10 +949,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>24</v>
@@ -968,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>0.01</v>
@@ -985,10 +993,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>25</v>
@@ -1012,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L9">
         <v>3.2</v>
@@ -1029,16 +1037,16 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>32</v>
